--- a/Experiments/Part3-Producer/DocPop/Setting 2 Results/DocPop_prod-S2.xlsx
+++ b/Experiments/Part3-Producer/DocPop/Setting 2 Results/DocPop_prod-S2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="5060" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="10 Runs" sheetId="1" r:id="rId1"/>
@@ -711,8 +711,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136798792"/>
-        <c:axId val="2136817736"/>
+        <c:axId val="2136798392"/>
+        <c:axId val="2135988168"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -989,11 +989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2121878024"/>
-        <c:axId val="2129787400"/>
+        <c:axId val="2135995208"/>
+        <c:axId val="2136744664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136798792"/>
+        <c:axId val="2136798392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +1002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136817736"/>
+        <c:crossAx val="2135988168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1010,7 +1010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136817736"/>
+        <c:axId val="2135988168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,12 +1021,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136798792"/>
+        <c:crossAx val="2136798392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129787400"/>
+        <c:axId val="2136744664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,12 +1036,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121878024"/>
+        <c:crossAx val="2135995208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2121878024"/>
+        <c:axId val="2135995208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1050,7 +1050,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129787400"/>
+        <c:crossAx val="2136744664"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1433,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+    <sheetView topLeftCell="AC1" workbookViewId="0">
       <selection activeCell="AQ33" sqref="AQ33"/>
     </sheetView>
   </sheetViews>
@@ -11302,11 +11303,11 @@
         <v>188.90476190476099</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K84" si="2">AVERAGE(A67:J67)</f>
+        <f t="shared" ref="K67:K79" si="2">AVERAGE(A67:J67)</f>
         <v>191.08571428571378</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L84" si="3">MEDIAN(A67:J67)</f>
+        <f t="shared" ref="L67:L79" si="3">MEDIAN(A67:J67)</f>
         <v>192.02380952380901</v>
       </c>
     </row>
@@ -18127,10 +18128,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19002,6 +19003,12 @@
       </c>
       <c r="C79">
         <v>4380.2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81">
+        <f>SUM(C2:C79)</f>
+        <v>164763.8000000001</v>
       </c>
     </row>
   </sheetData>
